--- a/strategy/2024-01-13.xlsx
+++ b/strategy/2024-01-13.xlsx
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,9 +92,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +106,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,28 +149,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,726 +312,772 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="4" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.0416550925925926</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="6" t="n">
         <f aca="false">$A3+B3</f>
         <v>45304</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <f aca="false">$A3+C3</f>
         <v>45304.0416550926</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="G3" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H3" s="7" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.0833217592592593</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <f aca="false">$A4+B4</f>
         <v>45304.0416666667</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <f aca="false">$A4+C4</f>
         <v>45304.0833217593</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="G4" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.124988425925926</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="6" t="n">
         <f aca="false">$A5+B5</f>
         <v>45304.0833333333</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="6" t="n">
         <f aca="false">$A5+C5</f>
         <v>45304.1249884259</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="G5" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>0.125</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.166655092592593</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <f aca="false">$A6+B6</f>
         <v>45304.125</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <f aca="false">$A6+C6</f>
         <v>45304.1666550926</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="G6" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>0.208321759259259</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="6" t="n">
         <f aca="false">$A7+B7</f>
         <v>45304.1666666667</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="6" t="n">
         <f aca="false">$A7+C7</f>
         <v>45304.2083217593</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="G7" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="A8" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.249988425925926</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="6" t="n">
         <f aca="false">$A8+B8</f>
         <v>45304.2083333333</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="6" t="n">
         <f aca="false">$A8+C8</f>
         <v>45304.2499884259</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="G8" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B9" s="4" t="n">
+      <c r="A9" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.291655092592593</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="6" t="n">
         <f aca="false">$A9+B9</f>
         <v>45304.25</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="6" t="n">
         <f aca="false">$A9+C9</f>
         <v>45304.2916550926</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="G9" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>0.333321759259259</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="6" t="n">
         <f aca="false">$A10+B10</f>
         <v>45304.2916666667</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="6" t="n">
         <f aca="false">$A10+C10</f>
         <v>45304.3333217593</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="G10" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B11" s="4" t="n">
+      <c r="A11" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.374988425925926</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="6" t="n">
         <f aca="false">$A11+B11</f>
         <v>45304.3333333333</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="6" t="n">
         <f aca="false">$A11+C11</f>
         <v>45304.3749884259</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B12" s="4" t="n">
+      <c r="A12" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>0.375</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.416655092592593</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="6" t="n">
         <f aca="false">$A12+B12</f>
         <v>45304.375</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="6" t="n">
         <f aca="false">$A12+C12</f>
         <v>45304.4166550926</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="G12" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B13" s="4" t="n">
+      <c r="A13" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>0.458321759259259</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <f aca="false">$A13+B13</f>
         <v>45304.4166666667</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="6" t="n">
         <f aca="false">$A13+C13</f>
         <v>45304.4583217593</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H13" s="0" t="n">
+      <c r="G13" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B14" s="4" t="n">
+      <c r="A14" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.499988425925926</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <f aca="false">$A14+B14</f>
         <v>45304.4583333333</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <f aca="false">$A14+C14</f>
         <v>45304.4999884259</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="G14" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B15" s="4" t="n">
+      <c r="A15" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.541655092592593</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="6" t="n">
         <f aca="false">$A15+B15</f>
         <v>45304.5</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="6" t="n">
         <f aca="false">$A15+C15</f>
         <v>45304.5416550926</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="G15" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="A16" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>0.583321759259259</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="6" t="n">
         <f aca="false">$A16+B16</f>
         <v>45304.5416666667</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="6" t="n">
         <f aca="false">$A16+C16</f>
         <v>45304.5833217593</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H16" s="0" t="n">
+      <c r="G16" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B17" s="4" t="n">
+      <c r="A17" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.624988425925926</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="6" t="n">
         <f aca="false">$A17+B17</f>
         <v>45304.5833333333</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="6" t="n">
         <f aca="false">$A17+C17</f>
         <v>45304.6249884259</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H17" s="0" t="n">
+      <c r="G17" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B18" s="4" t="n">
+      <c r="A18" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>0.625</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.666655092592593</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="6" t="n">
         <f aca="false">$A18+B18</f>
         <v>45304.625</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="6" t="n">
         <f aca="false">$A18+C18</f>
         <v>45304.6666550926</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="G18" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B19" s="4" t="n">
+      <c r="A19" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>0.708321759259259</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <f aca="false">$A19+B19</f>
         <v>45304.6666666667</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="6" t="n">
         <f aca="false">$A19+C19</f>
         <v>45304.7083217593</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H19" s="0" t="n">
+      <c r="G19" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B20" s="4" t="n">
+      <c r="A20" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.749988425925926</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="6" t="n">
         <f aca="false">$A20+B20</f>
         <v>45304.7083333333</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="6" t="n">
         <f aca="false">$A20+C20</f>
         <v>45304.7499884259</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="3" t="n">
         <v>51.6</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B21" s="4" t="n">
+      <c r="A21" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.791655092592593</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="6" t="n">
         <f aca="false">$A21+B21</f>
         <v>45304.75</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="6" t="n">
         <f aca="false">$A21+C21</f>
         <v>45304.7916550926</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="3" t="n">
         <v>305</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="3" t="n">
         <v>51.6</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B22" s="4" t="n">
+      <c r="A22" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <v>0.833321759259259</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="6" t="n">
         <f aca="false">$A22+B22</f>
         <v>45304.7916666667</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="6" t="n">
         <f aca="false">$A22+C22</f>
         <v>45304.8333217593</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="3" t="n">
         <v>303</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="3" t="n">
         <v>51.6</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B23" s="4" t="n">
+      <c r="A23" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <v>0.874988425925926</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="6" t="n">
         <f aca="false">$A23+B23</f>
         <v>45304.8333333333</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="6" t="n">
         <f aca="false">$A23+C23</f>
         <v>45304.8749884259</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="3" t="n">
         <v>303</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="3" t="n">
         <v>51.6</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B24" s="4" t="n">
+      <c r="A24" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <v>0.875</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="5" t="n">
         <v>0.916655092592593</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="6" t="n">
         <f aca="false">$A24+B24</f>
         <v>45304.875</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="6" t="n">
         <f aca="false">$A24+C24</f>
         <v>45304.9166550926</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="H24" s="0" t="n">
+      <c r="G24" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B25" s="4" t="n">
+      <c r="A25" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B25" s="5" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5" t="n">
         <v>0.958321759259259</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="6" t="n">
         <f aca="false">$A25+B25</f>
         <v>45304.9166666667</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="6" t="n">
         <f aca="false">$A25+C25</f>
         <v>45304.9583217593</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="G25" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B26" s="4" t="n">
+      <c r="A26" s="8" t="n">
+        <f aca="false">$A$3</f>
+        <v>45304</v>
+      </c>
+      <c r="B26" s="5" t="n">
         <v>0.958333333333333</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="5" t="n">
         <v>0.999988425925926</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="6" t="n">
         <f aca="false">$A26+B26</f>
         <v>45304.9583333333</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="6" t="n">
         <f aca="false">$A26+C26</f>
         <v>45304.9999884259</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H26" s="0" t="n">
+      <c r="G26" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">$H$3</f>
         <v>50</v>
       </c>
     </row>

--- a/strategy/2024-01-13.xlsx
+++ b/strategy/2024-01-13.xlsx
@@ -312,7 +312,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +385,7 @@
         <v>192</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H3" s="7" t="n">
         <v>50</v>
@@ -414,7 +414,7 @@
         <v>194</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -444,7 +444,7 @@
         <v>193</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -474,7 +474,7 @@
         <v>191</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -504,7 +504,7 @@
         <v>192</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -534,7 +534,7 @@
         <v>188</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -564,7 +564,7 @@
         <v>213</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -594,7 +594,7 @@
         <v>216</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -624,7 +624,7 @@
         <v>215</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -654,7 +654,7 @@
         <v>220</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -684,7 +684,7 @@
         <v>219</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -714,7 +714,7 @@
         <v>218</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -744,7 +744,7 @@
         <v>217</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -774,7 +774,7 @@
         <v>211</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -804,7 +804,7 @@
         <v>215</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -834,7 +834,7 @@
         <v>216</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -864,7 +864,7 @@
         <v>218</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1014,7 +1014,7 @@
         <v>218</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1044,7 +1044,7 @@
         <v>212</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1074,7 +1074,7 @@
         <v>211</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">$H$3</f>
